--- a/Andrew Features.xlsx
+++ b/Andrew Features.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewlawson/Dropbox/davidCM_Dec2021/andrew-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DA7FEB-4C53-014A-B512-AFB3C4B90C98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8A8540-D59A-7D47-9A3F-FDEBC187E30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>File</t>
   </si>
@@ -73,13 +73,7 @@
     <t>Event handling</t>
   </si>
   <si>
-    <t>run a function when one of a list of predefined events happens to an element</t>
-  </si>
-  <si>
     <t>Live preview</t>
-  </si>
-  <si>
-    <t>StuffForm.js</t>
   </si>
   <si>
     <t>routing</t>
@@ -89,6 +83,27 @@
   </si>
   <si>
     <t>what gets returned as jsx from a component and/or rendered depends on conditional logic</t>
+  </si>
+  <si>
+    <t>CreateStudentForm.js</t>
+  </si>
+  <si>
+    <t>20-29</t>
+  </si>
+  <si>
+    <t>Show the user both what would be submitted, and direct/indirect consquences of the input as it stands</t>
+  </si>
+  <si>
+    <t>Callbacks</t>
+  </si>
+  <si>
+    <t>uses a callback to run a function when one of a list of predefined events happens to an element</t>
+  </si>
+  <si>
+    <t>these passed functions may run based on a pre-defined set of conditions such as events, timings or conditional logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a callback is a function passed as an argument, by the function </t>
   </si>
 </sst>
 </file>
@@ -358,13 +373,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -408,7 +424,7 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -417,82 +433,101 @@
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
-        <v>4</v>
+      <c r="C5" s="3">
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C9" s="2">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="3"/>
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="3"/>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="3"/>
